--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -484,16 +484,16 @@
         <v>221</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
         <v>224</v>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F3" t="n">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="G3" t="n">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>161</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>131</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F6" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G6" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F7" t="n">
         <v>83</v>
       </c>
-      <c r="F7" t="n">
-        <v>99</v>
-      </c>
       <c r="G7" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G9" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,16 +764,16 @@
         <v>132</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>161</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>174</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G12" t="n">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         <v>144</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F13" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G13" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>83</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F14" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G14" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F15" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G15" t="n">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>58</v>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G16" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>113</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G17" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B2" t="n">
+        <v>220.2066810230544</v>
       </c>
       <c r="C2" t="n">
-        <v>221</v>
+        <v>243.5105835652365</v>
       </c>
       <c r="D2" t="n">
         <v>64</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>103</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>156</v>
+      </c>
+      <c r="I2" t="n">
+        <v>243.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>144</v>
+      </c>
+      <c r="K2" t="n">
+        <v>189.4736842105263</v>
+      </c>
+      <c r="L2" t="n">
+        <v>133</v>
+      </c>
+      <c r="M2" t="n">
+        <v>152.8735632183908</v>
+      </c>
+      <c r="N2" t="n">
+        <v>117</v>
+      </c>
+      <c r="O2" t="n">
+        <v>113.5922330097087</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A3" t="n">
+        <v>223</v>
+      </c>
+      <c r="B3" t="n">
+        <v>223.26226062018</v>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>245.0501218098168</v>
       </c>
       <c r="D3" t="n">
         <v>60</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>98</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I3" t="n">
+        <v>271.6666666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>152</v>
+      </c>
+      <c r="K3" t="n">
+        <v>214.0845070422535</v>
+      </c>
+      <c r="L3" t="n">
+        <v>141</v>
+      </c>
+      <c r="M3" t="n">
+        <v>171.9512195121951</v>
+      </c>
+      <c r="N3" t="n">
+        <v>125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>127.5510204081633</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A4" t="n">
+        <v>199</v>
+      </c>
+      <c r="B4" t="n">
+        <v>198.6868702583946</v>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>220.0794309740934</v>
       </c>
       <c r="D4" t="n">
         <v>61</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>98</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>138</v>
+      </c>
+      <c r="I4" t="n">
+        <v>226.2295081967213</v>
+      </c>
+      <c r="J4" t="n">
+        <v>127</v>
+      </c>
+      <c r="K4" t="n">
+        <v>176.3888888888889</v>
+      </c>
+      <c r="L4" t="n">
+        <v>117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>142.6829268292683</v>
+      </c>
+      <c r="N4" t="n">
+        <v>101</v>
+      </c>
+      <c r="O4" t="n">
+        <v>103.0612244897959</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A5" t="n">
+        <v>160</v>
+      </c>
+      <c r="B5" t="n">
+        <v>159.9365806385674</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>181.6033244773054</v>
       </c>
       <c r="D5" t="n">
         <v>60</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166.6666666666667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>122.2222222222222</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>92.77108433734939</v>
+      </c>
+      <c r="N5" t="n">
+        <v>61</v>
+      </c>
+      <c r="O5" t="n">
+        <v>61.61616161616161</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B6" t="n">
+        <v>130.5022987028616</v>
       </c>
       <c r="C6" t="n">
-        <v>131</v>
+        <v>155.4091241159606</v>
       </c>
       <c r="D6" t="n">
         <v>61</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>105</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>70</v>
+      </c>
+      <c r="I6" t="n">
+        <v>114.7540983606557</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58</v>
+      </c>
+      <c r="K6" t="n">
+        <v>79.45205479452055</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>52.32558139534884</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24.76190476190476</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A7" t="n">
+        <v>117</v>
+      </c>
+      <c r="B7" t="n">
+        <v>117.2711656179037</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>141.5526092526214</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>102</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>57</v>
+      </c>
+      <c r="I7" t="n">
+        <v>95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>40.96385542168674</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A8" t="n">
+        <v>112</v>
+      </c>
+      <c r="B8" t="n">
+        <v>112.2939488306669</v>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>134.2965569861422</v>
       </c>
       <c r="D8" t="n">
         <v>61</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>107</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>83.60655737704919</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51.35135135135135</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28.73563218390805</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.672897196261682</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A9" t="n">
+        <v>114</v>
+      </c>
+      <c r="B9" t="n">
+        <v>114.0767679136043</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>136.8274866676653</v>
       </c>
       <c r="D9" t="n">
         <v>64</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>113</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="n">
+        <v>78.125</v>
+      </c>
+      <c r="J9" t="n">
+        <v>37</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48.05194805194805</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25.27472527472527</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8849557522123894</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A10" t="n">
+        <v>131</v>
+      </c>
+      <c r="B10" t="n">
+        <v>131.2920187841207</v>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>154.0430596896435</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>104</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59</v>
+      </c>
+      <c r="K10" t="n">
+        <v>81.94444444444444</v>
+      </c>
+      <c r="L10" t="n">
+        <v>46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.11764705882353</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>25.96153846153846</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A11" t="n">
+        <v>161</v>
+      </c>
+      <c r="B11" t="n">
+        <v>160.5384013661374</v>
       </c>
       <c r="C11" t="n">
-        <v>161</v>
+        <v>184.1658192832924</v>
       </c>
       <c r="D11" t="n">
         <v>61</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>109</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>163.9344262295082</v>
+      </c>
+      <c r="J11" t="n">
+        <v>87</v>
+      </c>
+      <c r="K11" t="n">
+        <v>117.5675675675676</v>
+      </c>
+      <c r="L11" t="n">
+        <v>74</v>
+      </c>
+      <c r="M11" t="n">
+        <v>85.05747126436781</v>
+      </c>
+      <c r="N11" t="n">
+        <v>52</v>
+      </c>
+      <c r="O11" t="n">
+        <v>47.70642201834863</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A12" t="n">
+        <v>174</v>
+      </c>
+      <c r="B12" t="n">
+        <v>173.7036297861179</v>
       </c>
       <c r="C12" t="n">
-        <v>174</v>
+        <v>196.7742884967608</v>
       </c>
       <c r="D12" t="n">
         <v>63</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>114</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>111</v>
+      </c>
+      <c r="I12" t="n">
+        <v>176.1904761904762</v>
+      </c>
+      <c r="J12" t="n">
+        <v>97</v>
+      </c>
+      <c r="K12" t="n">
+        <v>125.974025974026</v>
+      </c>
+      <c r="L12" t="n">
+        <v>83</v>
+      </c>
+      <c r="M12" t="n">
+        <v>91.20879120879121</v>
+      </c>
+      <c r="N12" t="n">
+        <v>60</v>
+      </c>
+      <c r="O12" t="n">
+        <v>52.63157894736842</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A13" t="n">
+        <v>144</v>
+      </c>
+      <c r="B13" t="n">
+        <v>143.6293901413014</v>
       </c>
       <c r="C13" t="n">
-        <v>144</v>
+        <v>167.2931870427856</v>
       </c>
       <c r="D13" t="n">
         <v>65</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>120</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>121.5384615384615</v>
+      </c>
+      <c r="J13" t="n">
+        <v>65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>82.27848101265823</v>
+      </c>
+      <c r="L13" t="n">
+        <v>49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>51.57894736842105</v>
+      </c>
+      <c r="N13" t="n">
+        <v>24</v>
+      </c>
+      <c r="O13" t="n">
+        <v>20</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A14" t="n">
+        <v>83</v>
+      </c>
+      <c r="B14" t="n">
+        <v>82.73775072583022</v>
       </c>
       <c r="C14" t="n">
-        <v>83</v>
+        <v>104.5310735408467</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>114</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29.6875</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.792207792207792</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-8.791208791208792</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-31</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-27.19298245614035</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41.57515703886224</v>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>66.49873768628234</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>113</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-42.46575342465754</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-46</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-52.27272727272727</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-71</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-62.83185840707964</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A16" t="n">
+        <v>58</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57.95624139263777</v>
       </c>
       <c r="C16" t="n">
-        <v>58</v>
+        <v>82.31314738153252</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>110</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1.694915254237288</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-19.44444444444445</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-52</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-47.27272727272727</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B083RVN2VG</t>
-        </is>
+      <c r="A17" t="n">
+        <v>112</v>
+      </c>
+      <c r="B17" t="n">
+        <v>112.4501350778582</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>135.3772413990732</v>
       </c>
       <c r="D17" t="n">
         <v>58</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>108</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>54</v>
+      </c>
+      <c r="I17" t="n">
+        <v>93.10344827586206</v>
+      </c>
+      <c r="J17" t="n">
+        <v>42</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>31.76470588235294</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>A620I AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>2181</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1276</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>802</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>537</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>254</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
         <v>56</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
         <v>58</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>536</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>62</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>65</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>77</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>97</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>62</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>53</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>65</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>102</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>66</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>55</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>68</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>82</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>106</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>63</v>
+      </c>
+      <c r="E5" t="n">
         <v>54</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>66</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>80</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>103</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>65</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>59</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>72</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>88</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>114</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>57</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>69</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>86</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>112</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>76</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="n">
         <v>56</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>69</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>86</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>114</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>70</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="n">
         <v>58</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>71</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>90</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>120</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>64</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>57</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>69</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>86</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>113</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>65</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>57</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>69</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>88</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>118</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>62</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>57</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>70</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>89</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>121</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>69</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>57</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>70</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>89</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>121</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>68</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>56</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>68</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>86</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>116</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>65</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>53</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>65</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>84</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>115</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>69</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>54</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>67</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>85</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>115</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>71</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>53</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>65</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>83</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>113</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A620I AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
         <v>54</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v>53</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>55</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>54</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v>59</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>57</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>56</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>58</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
         <v>57</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
         <v>57</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
         <v>57</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>57</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>56</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>53</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
         <v>54</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>53</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1054</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>529</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
         <v>54</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>528</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
         <v>54</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>53</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
         <v>55</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>54</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
         <v>59</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>57</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>56</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>58</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
         <v>57</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
         <v>57</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>57</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>57</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
         <v>56</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>53</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>54</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>53</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2024-12-29</t>
+          <t>2023-02-19 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3588 units</t>
+          <t>3593 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1211</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>606</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>300</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="n">
         <v>75</v>
       </c>
-      <c r="E3" t="n">
-        <v>53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65</v>
-      </c>
       <c r="G3" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H4" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G7" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H7" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H8" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H10" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H11" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>79</v>
+      </c>
+      <c r="E12" t="n">
+        <v>64</v>
+      </c>
+      <c r="F12" t="n">
         <v>78</v>
       </c>
-      <c r="E12" t="n">
-        <v>57</v>
-      </c>
-      <c r="F12" t="n">
-        <v>70</v>
-      </c>
       <c r="G12" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H12" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H13" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H14" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G15" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G17" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2025-01-05</t>
+          <t>2023-02-19 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3593 units</t>
+          <t>3641 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1135</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>550</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>266</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
         <v>65</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>58</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1123</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>544</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>265</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>63</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
         <v>61</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>65</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>65</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>62</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>58</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1328</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>656</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>332</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>61</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1334</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>661</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>333</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
         <v>63</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>61</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>65</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v>65</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
         <v>62</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
         <v>58</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2025-01-12</t>
+          <t>2023-02-19 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3641 units</t>
+          <t>3655 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>843</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>424</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>63</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>61</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E8" t="n">
         <v>65</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>65</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>62</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>58</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3655 units</t>
+          <t>3752 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>1206</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>617</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>325</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1207</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="H2" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="H3" t="n">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G4" t="n">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="H4" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H6" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="H7" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G8" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H8" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G9" t="n">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G10" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H10" t="n">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H11" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -894,16 +894,16 @@
         <v>83</v>
       </c>
       <c r="E12" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F12" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G12" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H12" t="n">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G13" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H13" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G14" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H14" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E15" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F15" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G15" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F16" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H16" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F17" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="H17" t="n">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2025-01-19</t>
+          <t>2023-02-19 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3752 units</t>
+          <t>3868 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1581</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>849</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>468</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>68</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083RVN2VG.xlsx
+++ b/Sufficient data/forecast_summary_B083RVN2VG.xlsx
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
         <v>87</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
         <v>85</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="n">
         <v>82</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>78</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1584</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>848</t>
         </is>
       </c>
     </row>
